--- a/Tema 13 - Estructuras de datos - Factores/Tema13_Auxiliar_Factores.xlsx
+++ b/Tema 13 - Estructuras de datos - Factores/Tema13_Auxiliar_Factores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Programacion-R\Tema 13 - Estructuras de datos - Factores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE5A89E-F18C-47F5-B334-564614020E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5E42EC-9A22-4E32-A5F7-937461524FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EjemplO" sheetId="1" r:id="rId1"/>
@@ -94,12 +94,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,9 +144,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +430,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,37 +477,37 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
         <v>6</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -503,22 +515,22 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -526,22 +538,22 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>6</v>
       </c>
     </row>
